--- a/results/AdaBoostClassifier_LGBMClassifier.xlsx
+++ b/results/AdaBoostClassifier_LGBMClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,42 +451,62 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Validation Score</t>
+          <t>CV Train F1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CV Test F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation F1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Precision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Y Val (Validation)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Y Pred (Validation)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
         </is>
       </c>
     </row>
@@ -495,216 +515,335 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f91c7954cd0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd5873a6cd0&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=LGBMClassifier(boosting_type='dart',
-                                                             colsample_bytree=0.5,
+                                                             class_weight='balanced',
+                                                             colsample_bytree=0.9,
+                                                             learning_rate=0.05,
+                                                             max_depth=5,
+                                                             min_child_samples=10,
+                                                             num_leaves=5,
+                                                             random_state=42,
+                                                             subsample=0.5),
+                                    random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.636984126984127</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58725a430&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 5, 'model__estimator__min_child_samples': 10, 'model__estimator__max_depth': 5, 'model__estimator__learning_rate': 0.05, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'dart'}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.959646464880193</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4967871017871018</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9538105431892684</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5345</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9674285714285716</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4936</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 0 1 1 0 1 0 1 1 0 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd58716dbb0&gt;),
+                ('model',
+                 AdaBoostClassifier(estimator=LGBMClassifier(class_weight='balanced',
+                                                             colsample_bytree=0.9,
                                                              learning_rate=0.01,
-                                                             max_depth=5,
-                                                             num_leaves=2,
+                                                             max_depth=1,
+                                                             min_child_samples=10,
+                                                             num_leaves=5,
+                                                             random_state=42,
+                                                             subsample=0.5),
+                                    n_estimators=10, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6421428571428571</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd584f34580&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 5, 'model__estimator__min_child_samples': 10, 'model__estimator__max_depth': 1, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'gbdt'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9620063637249183</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5279874347874347</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9636753701885767</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5210333333333333</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9615500000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5596</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[1 0 0 1 1 0 0 0 1 1 0 0 1 0 1 0 1 1 1 1 0 0 1 1 1 1 0 0 0 0 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd58725a190&gt;),
+                ('model',
+                 AdaBoostClassifier(estimator=LGBMClassifier(boosting_type='dart',
+                                                             class_weight='balanced',
+                                                             colsample_bytree=0.9,
+                                                             max_depth=7,
+                                                             min_child_samples=5,
+                                                             num_leaves=20,
+                                                             random_state=42,
+                                                             subsample=0.5),
+                                    n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6016666666666667</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58725ae20&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 20, 'model__estimator__min_child_samples': 5, 'model__estimator__max_depth': 7, 'model__estimator__learning_rate': 0.1, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'dart'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9561097289977698</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5214957819957819</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5454545454545455</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9585653951771679</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5190714285714285</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9544736842105263</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5416000000000001</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 1 1 0 1 1 0 1 1 1 1 0 0 1 0 1 0]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd58725a9a0&gt;),
+                ('model',
+                 AdaBoostClassifier(estimator=LGBMClassifier(class_weight='balanced',
+                                                             colsample_bytree=0.7,
+                                                             learning_rate=0.05,
+                                                             max_depth=3,
+                                                             min_child_samples=5,
+                                                             num_leaves=10,
                                                              random_state=42,
                                                              subsample=0.7),
                                     n_estimators=10, random_state=42))])</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.6455677655677655</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91c9dd7220&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 2, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 5, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.5, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 1 1 1 0 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.961460671526453</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.008621116287350149</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.4965190727573081</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1645920320212563</v>
+      <c r="B5" t="n">
+        <v>0.7130952380952381</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58723c2b0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 10, 'model__estimator__min_child_samples': 5, 'model__estimator__max_depth': 3, 'model__estimator__learning_rate': 0.05, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'gbdt'}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9681047815810808</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5491764790764792</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9665847000682356</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5466277777777778</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9719047619047619</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5807999999999999</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0 1 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 1 1 1 1 0 1 1 1 1 0 1 1 0 0 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>99</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f91c792f0a0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd584f34e20&gt;),
                 ('model',
-                 AdaBoostClassifier(estimator=LGBMClassifier(boosting_type='dart',
+                 AdaBoostClassifier(estimator=LGBMClassifier(class_weight='balanced',
                                                              colsample_bytree=0.5,
-                                                             learning_rate=0.2,
-                                                             max_depth=5,
-                                                             num_leaves=10,
-                                                             random_state=42,
-                                                             subsample=0.9),
-                                    random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.657032967032967</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91c9ea4be0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__subsample': 0.9, 'model__estimator__num_leaves': 10, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 5, 'model__estimator__learning_rate': 0.2, 'model__estimator__colsample_bytree': 0.5, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6666666666666665</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9573117785746831</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.01007210903252604</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5969896319366906</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1262850439675542</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model',
-                 AdaBoostClassifier(estimator=LGBMClassifier(boosting_type='dart',
-                                                             colsample_bytree=0.9,
                                                              learning_rate=0.01,
                                                              max_depth=1,
-                                                             num_leaves=2,
+                                                             min_child_samples=1,
+                                                             num_leaves=5,
                                                              random_state=42,
-                                                             subsample=0.5),
+                                                             subsample=0.7),
                                     n_estimators=5, random_state=42))])</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.681439883645766</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 2, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 1, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9584472592367438</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.01025896932193866</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6049980232186114</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1204827031318551</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f91c9ea4040&gt;),
-                ('model',
-                 AdaBoostClassifier(estimator=LGBMClassifier(boosting_type='dart',
-                                                             colsample_bytree=0.7,
-                                                             learning_rate=0.01,
-                                                             max_depth=3,
-                                                             num_leaves=2,
-                                                             random_state=42,
-                                                             subsample=0.9),
-                                    random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7535827407886232</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91c78a47f0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__subsample': 0.9, 'model__estimator__num_leaves': 2, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 3, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 1 1 0 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>99</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9667857780934611</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.009117045269628966</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5956896557690675</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1409762034098183</v>
+      <c r="B6" t="n">
+        <v>0.8161904761904764</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58723cc70&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 5, 'model__estimator__min_child_samples': 1, 'model__estimator__max_depth': 1, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.5, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'gbdt'}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9586703143273819</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6054935175935175</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9547814272742375</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5865666666666666</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9644999999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.6559999999999999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 1 1 1 0 0 1 1 0 1 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/AdaBoostClassifier_LGBMClassifier.xlsx
+++ b/results/AdaBoostClassifier_LGBMClassifier.xlsx
@@ -515,63 +515,61 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd5873a6cd0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f73c820&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=LGBMClassifier(boosting_type='dart',
-                                                             class_weight='balanced',
-                                                             colsample_bytree=0.9,
-                                                             learning_rate=0.05,
-                                                             max_depth=5,
-                                                             min_child_samples=10,
-                                                             num_leaves=5,
+                                                             colsample_bytree=0.7,
+                                                             learning_rate=0.01,
+                                                             max_depth=3,
+                                                             num_leaves=2,
                                                              random_state=42,
-                                                             subsample=0.5),
-                                    random_state=42))])</t>
+                                                             subsample=0.7),
+                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.636984126984127</v>
+        <v>0.6732733932733932</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58725a430&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 5, 'model__estimator__min_child_samples': 10, 'model__estimator__max_depth': 5, 'model__estimator__learning_rate': 0.05, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'dart'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f69a070&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 2, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 3, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.959646464880193</v>
+        <v>0.9612130063717511</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4967871017871018</v>
+        <v>0.5501962814962815</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9538105431892684</v>
+        <v>0.9570698995220637</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5345</v>
+        <v>0.5527142857142857</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9674285714285716</v>
+        <v>0.9665106382978722</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4936</v>
+        <v>0.5683333333333332</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8125</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 0 1 1 0 1 0 1 1 0 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+          <t>[1 1 1 1 1 1 0 0 1 1 0 1 1 1 0 0 0 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -583,13 +581,12 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd58716dbb0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f766610&gt;),
                 ('model',
-                 AdaBoostClassifier(estimator=LGBMClassifier(class_weight='balanced',
+                 AdaBoostClassifier(estimator=LGBMClassifier(boosting_type='dart',
                                                              colsample_bytree=0.9,
-                                                             learning_rate=0.01,
-                                                             max_depth=1,
-                                                             min_child_samples=10,
+                                                             learning_rate=0.2,
+                                                             max_depth=5,
                                                              num_leaves=5,
                                                              random_state=42,
                                                              subsample=0.5),
@@ -597,48 +594,48 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6421428571428571</v>
+        <v>0.6192840492840492</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd584f34580&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 5, 'model__estimator__min_child_samples': 10, 'model__estimator__max_depth': 1, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'gbdt'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f69af40&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 5, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 5, 'model__estimator__learning_rate': 0.2, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9620063637249183</v>
+        <v>0.9564773669395636</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5279874347874347</v>
+        <v>0.4997880896880897</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6976744186046512</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9636753701885767</v>
+        <v>0.9588077222520017</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5210333333333333</v>
+        <v>0.5630944444444445</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9615500000000001</v>
+        <v>0.9560425531914893</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5596</v>
+        <v>0.473</v>
       </c>
       <c r="L3" t="n">
         <v>0.625</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[1 0 0 1 1 0 0 0 1 1 0 0 1 0 1 0 1 1 1 1 0 0 1 1 1 1 0 0 0 0 0 1 1 1 0 1]</t>
+          <t>[0 0 0 1 1 0 1 1 1 1 1 0 0 0 1 1 1 1 1 0 0 0 0 1]</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -650,62 +647,62 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd58725a190&gt;),
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
                  AdaBoostClassifier(estimator=LGBMClassifier(boosting_type='dart',
-                                                             class_weight='balanced',
                                                              colsample_bytree=0.9,
-                                                             max_depth=7,
-                                                             min_child_samples=5,
-                                                             num_leaves=20,
+                                                             learning_rate=0.01,
+                                                             max_depth=1,
+                                                             num_leaves=2,
                                                              random_state=42,
                                                              subsample=0.5),
                                     n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6016666666666667</v>
+        <v>0.6468220668220669</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58725ae20&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 20, 'model__estimator__min_child_samples': 5, 'model__estimator__max_depth': 7, 'model__estimator__learning_rate': 0.1, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'dart'}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 2, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 1, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9561097289977698</v>
+        <v>0.9565216223162405</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5214957819957819</v>
+        <v>0.5214840159840162</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5454545454545455</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9585653951771679</v>
+        <v>0.9563322359432306</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5190714285714285</v>
+        <v>0.5599880952380953</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9544736842105263</v>
+        <v>0.9574666666666667</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5416000000000001</v>
+        <v>0.514</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 1 1 0 1 1 0 1 1 1 1 0 0 1 0 1 0]</t>
+          <t>[0 1 1 1 0 1 0 1 1 0 0 0 0 1 1 1 0 0 1 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -717,62 +714,62 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd58725a9a0&gt;),
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 AdaBoostClassifier(estimator=LGBMClassifier(class_weight='balanced',
-                                                             colsample_bytree=0.7,
-                                                             learning_rate=0.05,
-                                                             max_depth=3,
-                                                             min_child_samples=5,
+                 AdaBoostClassifier(estimator=LGBMClassifier(colsample_bytree=0.9,
+                                                             learning_rate=0.01,
+                                                             max_depth=7,
+                                                             min_child_samples=10,
                                                              num_leaves=10,
                                                              random_state=42,
-                                                             subsample=0.7),
+                                                             subsample=0.5),
                                     n_estimators=10, random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7130952380952381</v>
+        <v>0.6883699633699634</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58723c2b0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 10, 'model__estimator__min_child_samples': 5, 'model__estimator__max_depth': 3, 'model__estimator__learning_rate': 0.05, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'gbdt'}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 10, 'model__estimator__min_child_samples': 10, 'model__estimator__max_depth': 7, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'gbdt'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9681047815810808</v>
+        <v>0.9670418829338966</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5491764790764792</v>
+        <v>0.5799967476967477</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>0.5517241379310344</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9665847000682356</v>
+        <v>0.9643863293515125</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5466277777777778</v>
+        <v>0.5779920634920636</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9719047619047619</v>
+        <v>0.9722857142857143</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5807999999999999</v>
+        <v>0.6046666666666667</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[0 1 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 1 1 1 1 0 1 1 1 1 0 1 1 0 0 1]</t>
+          <t>[0 0 1 0 1 1 1 1 0 1 1 0 0 1 1 0 0 1 1 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -784,62 +781,60 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd584f34e20&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f75f400&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=LGBMClassifier(class_weight='balanced',
-                                                             colsample_bytree=0.5,
-                                                             learning_rate=0.01,
-                                                             max_depth=1,
-                                                             min_child_samples=1,
+                                                             colsample_bytree=0.9,
+                                                             max_depth=5,
                                                              num_leaves=5,
                                                              random_state=42,
-                                                             subsample=0.7),
-                                    n_estimators=5, random_state=42))])</t>
+                                                             subsample=0.9),
+                                    n_estimators=10, random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8161904761904764</v>
+        <v>0.703076923076923</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58723cc70&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 5, 'model__estimator__min_child_samples': 1, 'model__estimator__max_depth': 1, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.5, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'gbdt'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f43b850&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.9, 'model__estimator__num_leaves': 5, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 5, 'model__estimator__learning_rate': 0.1, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'gbdt'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9586703143273819</v>
+        <v>0.9543629484469506</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6054935175935175</v>
+        <v>0.6146100788100788</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4</v>
+        <v>0.6206896551724137</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9547814272742375</v>
+        <v>0.9576397749305066</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5865666666666666</v>
+        <v>0.6100984126984126</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9644999999999999</v>
+        <v>0.953923076923077</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6559999999999999</v>
+        <v>0.6406666666666667</v>
       </c>
       <c r="L6" t="n">
-        <v>0.35</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 1 1 1 0 0 1 1 0 1 0 0 0 0 0 0]</t>
+          <t>[1 0 1 1 1 1 1 1 0 0 1 1 1 1 0 0 1 1 1 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">

--- a/results/AdaBoostClassifier_LGBMClassifier.xlsx
+++ b/results/AdaBoostClassifier_LGBMClassifier.xlsx
@@ -515,49 +515,50 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f73c820&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f1778345ee0&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=LGBMClassifier(boosting_type='dart',
-                                                             colsample_bytree=0.7,
-                                                             learning_rate=0.01,
-                                                             max_depth=3,
+                                                             class_weight='balanced',
+                                                             colsample_bytree=0.9,
+                                                             learning_rate=0.05,
+                                                             max_depth=7,
                                                              num_leaves=2,
                                                              random_state=42,
-                                                             subsample=0.7),
-                                    n_estimators=5, random_state=42))])</t>
+                                                             subsample=0.9),
+                                    random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6732733932733932</v>
+        <v>0.6111655011655011</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f69a070&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 2, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 3, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f1778249df0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__subsample': 0.9, 'model__estimator__num_leaves': 2, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 7, 'model__estimator__learning_rate': 0.05, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9612130063717511</v>
+        <v>0.962089050157198</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5501962814962815</v>
+        <v>0.5196241869241869</v>
       </c>
       <c r="F2" t="n">
-        <v>0.787878787878788</v>
+        <v>0.742857142857143</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9570698995220637</v>
+        <v>0.9712646964955758</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5527142857142857</v>
+        <v>0.5397650793650793</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9665106382978722</v>
+        <v>0.9539148936170213</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5683333333333332</v>
+        <v>0.5226666666666666</v>
       </c>
       <c r="L2" t="n">
         <v>0.8125</v>
@@ -569,7 +570,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 0 1 1 0 1 1 1 0 0 0 1 0 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 0 0 1 1 1 1 1 1 0 0 1 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -581,52 +582,54 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f766610&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f17782ae970&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=LGBMClassifier(boosting_type='dart',
-                                                             colsample_bytree=0.9,
+                                                             class_weight='balanced',
+                                                             colsample_bytree=0.7,
                                                              learning_rate=0.2,
                                                              max_depth=5,
-                                                             num_leaves=5,
+                                                             min_child_samples=10,
+                                                             num_leaves=10,
                                                              random_state=42,
-                                                             subsample=0.5),
+                                                             subsample=0.7),
                                     n_estimators=10, random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6192840492840492</v>
+        <v>0.6276301476301476</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f69af40&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 5, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 5, 'model__estimator__learning_rate': 0.2, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f17782325e0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 10, 'model__estimator__min_child_samples': 10, 'model__estimator__max_depth': 5, 'model__estimator__learning_rate': 0.2, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9564773669395636</v>
+        <v>0.9540224852053723</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4997880896880897</v>
+        <v>0.4801240093240093</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9588077222520017</v>
+        <v>0.9674092428847044</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5630944444444445</v>
+        <v>0.5702166666666666</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9560425531914893</v>
+        <v>0.942340425531915</v>
       </c>
       <c r="K3" t="n">
-        <v>0.473</v>
+        <v>0.4383333333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>0.625</v>
+        <v>0.8125</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -635,7 +638,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[0 0 0 1 1 0 1 1 1 1 1 0 0 0 1 1 1 1 1 0 0 0 0 1]</t>
+          <t>[0 1 1 1 1 0 1 1 1 1 1 0 0 0 1 1 1 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -644,123 +647,123 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f17782ae5e0&gt;),
+                ('model',
+                 AdaBoostClassifier(estimator=LGBMClassifier(class_weight='balanced',
+                                                             colsample_bytree=0.9,
+                                                             learning_rate=0.01,
+                                                             max_depth=3,
+                                                             min_child_samples=5,
+                                                             num_leaves=10,
+                                                             random_state=42,
+                                                             subsample=0.9),
+                                    n_estimators=10, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6393434343434342</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f17782408e0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.9, 'model__estimator__num_leaves': 10, 'model__estimator__min_child_samples': 5, 'model__estimator__max_depth': 3, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'gbdt'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9615375801503676</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5035133755133755</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9669373468911572</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5512738095238094</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9565777777777779</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4904</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 0 1 0 1 1 0 0 1 0 1 0 1 0 1 0 0 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
                  SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
                                                      random_state=42))),
                 ('model',
-                 AdaBoostClassifier(estimator=LGBMClassifier(boosting_type='dart',
-                                                             colsample_bytree=0.9,
-                                                             learning_rate=0.01,
-                                                             max_depth=1,
-                                                             num_leaves=2,
+                 AdaBoostClassifier(estimator=LGBMClassifier(class_weight='balanced',
+                                                             colsample_bytree=0.5,
+                                                             learning_rate=0.2,
+                                                             max_depth=7,
+                                                             num_leaves=20,
                                                              random_state=42,
-                                                             subsample=0.5),
+                                                             subsample=0.9),
                                     n_estimators=5, random_state=42))])</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.6468220668220669</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 2, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 1, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9565216223162405</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5214840159840162</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9563322359432306</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5599880952380953</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9574666666666667</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 0 1 0 1 1 0 0 0 0 1 1 1 0 0 1 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model',
-                 AdaBoostClassifier(estimator=LGBMClassifier(colsample_bytree=0.9,
-                                                             learning_rate=0.01,
-                                                             max_depth=7,
-                                                             min_child_samples=10,
-                                                             num_leaves=10,
-                                                             random_state=42,
-                                                             subsample=0.5),
-                                    n_estimators=10, random_state=42))])</t>
-        </is>
-      </c>
       <c r="B5" t="n">
-        <v>0.6883699633699634</v>
+        <v>0.6782051282051282</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 10, 'model__estimator__min_child_samples': 10, 'model__estimator__max_depth': 7, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'gbdt'}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__subsample': 0.9, 'model__estimator__num_leaves': 20, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 7, 'model__estimator__learning_rate': 0.2, 'model__estimator__colsample_bytree': 0.5, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'gbdt'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9670418829338966</v>
+        <v>0.9758706873362157</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5799967476967477</v>
+        <v>0.558197557997558</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5517241379310344</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9643863293515125</v>
+        <v>0.9845398871083151</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5779920634920636</v>
+        <v>0.5764515873015873</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9722857142857143</v>
+        <v>0.9683265306122449</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6046666666666667</v>
+        <v>0.5630000000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -769,7 +772,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[0 0 1 0 1 1 1 1 0 1 1 0 0 1 1 0 0 1 1 0 1 1 1 1]</t>
+          <t>[0 1 1 0 1 0 0 1 0 1 1 1 0 0 1 0 0 1 1 0 0 1 0 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -781,51 +784,52 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f75f400&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f1778232340&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=LGBMClassifier(class_weight='balanced',
-                                                             colsample_bytree=0.9,
+                                                             colsample_bytree=0.5,
                                                              max_depth=5,
-                                                             num_leaves=5,
+                                                             min_child_samples=10,
+                                                             num_leaves=20,
                                                              random_state=42,
-                                                             subsample=0.9),
-                                    n_estimators=10, random_state=42))])</t>
+                                                             subsample=0.5),
+                                    n_estimators=100, random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.703076923076923</v>
+        <v>0.7053446553446554</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f43b850&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.9, 'model__estimator__num_leaves': 5, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 5, 'model__estimator__learning_rate': 0.1, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'gbdt'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f1778240d90&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 100, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 20, 'model__estimator__min_child_samples': 10, 'model__estimator__max_depth': 5, 'model__estimator__learning_rate': 0.1, 'model__estimator__colsample_bytree': 0.5, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'gbdt'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9543629484469506</v>
+        <v>0.9646773873582138</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6146100788100788</v>
+        <v>0.5987598290598291</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6206896551724137</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9576397749305066</v>
+        <v>0.9815272586860765</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6100984126984126</v>
+        <v>0.6106706349206349</v>
       </c>
       <c r="I6" t="n">
         <v>0.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.953923076923077</v>
+        <v>0.9494999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6406666666666667</v>
+        <v>0.606</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -834,7 +838,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 1 1 0 0 1 1 1 1 0 0 1 1 1 0 1 1 1 1]</t>
+          <t>[1 0 1 1 1 1 0 0 0 0 0 1 1 1 0 0 0 1 1 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">
